--- a/database/General_Data/GeneralizedData.xlsx
+++ b/database/General_Data/GeneralizedData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quintinroper/Documents/Lighthouse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quintinroper/GitHub/Lighthouse-App-Website/database/General_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>Atlanta Crime List</t>
   </si>
@@ -225,13 +225,16 @@
     <t>DRUG VIOLATIONS</t>
   </si>
   <si>
-    <t>PUBLIC DRUNKENNESS</t>
-  </si>
-  <si>
     <t>Philadelphia Crime List</t>
   </si>
   <si>
     <t>PHI Score</t>
+  </si>
+  <si>
+    <t>Liquor Law Violations</t>
+  </si>
+  <si>
+    <t>LOITERING</t>
   </si>
 </sst>
 </file>
@@ -331,7 +334,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -339,9 +342,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -721,7 +721,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,11 +758,11 @@
       <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="K1" s="2"/>
     </row>
@@ -785,7 +785,7 @@
         <v>46</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" t="s">
         <v>46</v>
       </c>
       <c r="J2" s="2"/>
@@ -810,7 +810,7 @@
         <v>36</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="5" t="s">
+      <c r="I3" t="s">
         <v>36</v>
       </c>
       <c r="J3" s="2"/>
@@ -835,8 +835,8 @@
         <v>37</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
-        <v>37</v>
+      <c r="I4" t="s">
+        <v>1</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -845,7 +845,7 @@
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>0.25</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -860,8 +860,8 @@
         <v>54</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="5" t="s">
-        <v>1</v>
+      <c r="I5" t="s">
+        <v>62</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -870,7 +870,7 @@
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -885,8 +885,8 @@
         <v>1</v>
       </c>
       <c r="H6" s="2"/>
-      <c r="I6" s="5" t="s">
-        <v>62</v>
+      <c r="I6" t="s">
+        <v>63</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -895,7 +895,7 @@
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0.5</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -910,8 +910,8 @@
         <v>38</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="5" t="s">
-        <v>63</v>
+      <c r="I7" t="s">
+        <v>8</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -920,7 +920,7 @@
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0.25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -935,8 +935,8 @@
         <v>7</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="5" t="s">
-        <v>8</v>
+      <c r="I8" t="s">
+        <v>59</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -945,7 +945,7 @@
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -960,8 +960,8 @@
         <v>47</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="5" t="s">
-        <v>59</v>
+      <c r="I9" t="s">
+        <v>64</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -970,7 +970,7 @@
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -985,8 +985,8 @@
         <v>39</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="5" t="s">
-        <v>64</v>
+      <c r="I10" t="s">
+        <v>2</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -995,7 +995,7 @@
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1010,8 +1010,8 @@
         <v>50</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="5" t="s">
-        <v>2</v>
+      <c r="I11" t="s">
+        <v>67</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1031,8 +1031,8 @@
         <v>2</v>
       </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="5" t="s">
-        <v>41</v>
+      <c r="I12" t="s">
+        <v>68</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1052,8 +1052,8 @@
         <v>55</v>
       </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="5" t="s">
-        <v>65</v>
+      <c r="I13" t="s">
+        <v>41</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1073,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="H14" s="2"/>
-      <c r="I14" s="5" t="s">
+      <c r="I14" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="2"/>
@@ -1094,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="2"/>
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="s">
         <v>42</v>
       </c>
       <c r="J16" s="2"/>
@@ -1134,7 +1134,7 @@
         <v>42</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>52</v>
       </c>
       <c r="J17" s="2"/>
@@ -1151,7 +1151,7 @@
         <v>56</v>
       </c>
       <c r="H18" s="2"/>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="s">
         <v>43</v>
       </c>
       <c r="J18" s="2"/>
@@ -1186,8 +1186,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="2"/>
       <c r="E21" s="4"/>
@@ -1199,8 +1199,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
       <c r="E22" s="4"/>
@@ -1212,8 +1212,8 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="4"/>
@@ -1225,8 +1225,8 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
       <c r="E24" s="4"/>
@@ -1238,8 +1238,8 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="4"/>
@@ -1251,8 +1251,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="4"/>
@@ -1264,8 +1264,8 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1277,8 +1277,8 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1290,8 +1290,8 @@
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1303,12 +1303,12 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1322,7 +1322,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/database/General_Data/GeneralizedData.xlsx
+++ b/database/General_Data/GeneralizedData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>Atlanta Crime List</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>PHI Score</t>
-  </si>
-  <si>
-    <t>Liquor Law Violations</t>
   </si>
   <si>
     <t>LOITERING</t>
@@ -721,7 +718,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,100 +768,128 @@
         <v>46</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>9.1625207296849101E-2</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>0.2396351575456053</v>
+      </c>
       <c r="E2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>0.2396351575456053</v>
+      </c>
       <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2">
+        <v>9.1625207296849101E-2</v>
+      </c>
       <c r="I2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="2">
+        <v>9.1625207296849101E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.25</v>
+        <v>0.15920398009950248</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2">
+        <v>7.545605306799337E-2</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>7.545605306799337E-2</v>
+      </c>
       <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <v>0.2396351575456053</v>
+      </c>
       <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="2">
+        <v>0.2396351575456053</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2">
-        <v>0.5</v>
+        <v>6.053067993366501E-2</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>6.053067993366501E-2</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>0.15920398009950248</v>
+      </c>
       <c r="G4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2">
+        <v>7.545605306799337E-2</v>
+      </c>
       <c r="I4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="2">
+        <v>0.15920398009950248</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="6">
-        <v>0.25</v>
+        <v>6.053067993366501E-2</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2">
+        <v>2.8606965174129355E-2</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>0.12769485903814262</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2">
+        <v>0.21227197346600335</v>
+      </c>
       <c r="I5" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="2">
+        <v>6.053067993366501E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
@@ -880,141 +905,181 @@
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>6.053067993366501E-2</v>
+      </c>
       <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>0.15920398009950248</v>
+      </c>
       <c r="I6" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="2">
+        <v>6.053067993366501E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="6">
-        <v>0.5</v>
+        <v>2.1144278606965175E-2</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>8.291873963515755E-3</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>2.8606965174129355E-2</v>
+      </c>
       <c r="G7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>0.12769485903814262</v>
+      </c>
       <c r="I7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="2">
+        <v>1.2437810945273632E-3</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="6">
-        <v>0.25</v>
+        <v>2.1144278606965175E-2</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>1.2437810945273632E-3</v>
+      </c>
       <c r="G8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>6.053067993366501E-2</v>
+      </c>
       <c r="I8" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="2">
+        <v>8.291873963515755E-3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6">
-        <v>1</v>
+        <v>0.55472636815920406</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
       <c r="G9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>6.053067993366501E-2</v>
+      </c>
       <c r="I9" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="2">
+        <v>0.12313432835820896</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>1</v>
+        <v>0.31674958540630188</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2">
+        <v>0.8233830845771144</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>0.8233830845771144</v>
+      </c>
       <c r="G10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>2.8606965174129355E-2</v>
+      </c>
       <c r="I10" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="6">
-        <v>1</v>
+        <v>0.14469320066334992</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2">
+        <v>2.1144278606965175E-2</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>0.12313432835820896</v>
+      </c>
       <c r="G11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>1.2437810945273632E-3</v>
+      </c>
       <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="2">
+        <v>1.2437810945273632E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -1022,20 +1087,27 @@
       <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.12313432835820896</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>1.2437810945273632E-3</v>
+      </c>
       <c r="G12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
       <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.2437810945273632E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
@@ -1043,20 +1115,27 @@
       <c r="C13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>1.2437810945273632E-3</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2">
+        <v>0.31674958540630188</v>
+      </c>
       <c r="G13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>2.0729684908789387E-3</v>
+      </c>
       <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.55472636815920406</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
@@ -1064,20 +1143,27 @@
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0.31674958540630188</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2">
+        <v>0.49751243781094528</v>
+      </c>
       <c r="G14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>0.8233830845771144</v>
+      </c>
       <c r="I14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.31674958540630188</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -1085,20 +1171,27 @@
       <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>4.1459369817578775E-3</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0.14469320066334992</v>
+      </c>
       <c r="G15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>0.55472636815920406</v>
+      </c>
       <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.14469320066334992</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
@@ -1106,20 +1199,27 @@
       <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>0.23178807947019869</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>2.0729684908789387E-3</v>
+      </c>
       <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2">
+        <v>0.31674958540630188</v>
+      </c>
       <c r="I16" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.0729684908789387E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
@@ -1129,16 +1229,21 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="2"/>
+      <c r="F17" s="2">
+        <v>0.23178807947019869</v>
+      </c>
       <c r="G17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2">
+        <v>0.14469320066334992</v>
+      </c>
       <c r="I17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.23178807947019869</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
@@ -1150,12 +1255,9 @@
       <c r="G18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="H18" s="2">
+        <v>0.14469320066334992</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
@@ -1167,7 +1269,9 @@
       <c r="G19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2">
+        <v>0.33333333333333337</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1203,7 +1307,6 @@
       <c r="B22" s="5"/>
       <c r="C22" s="1"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1216,8 +1319,7 @@
       <c r="B23" s="5"/>
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -1229,8 +1331,7 @@
       <c r="B24" s="5"/>
       <c r="C24" s="1"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -1242,8 +1343,7 @@
       <c r="B25" s="5"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -1253,10 +1353,9 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1266,10 +1365,9 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1279,10 +1377,9 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>

--- a/database/General_Data/GeneralizedData.xlsx
+++ b/database/General_Data/GeneralizedData.xlsx
@@ -718,7 +718,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,7 +901,9 @@
       <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1.2437810945273632E-3</v>
+      </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
